--- a/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业税金及附加.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1385 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.5474</v>
+        <v>9.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9268999999999999</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>3.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.4</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.0587</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.9</v>
+      </c>
       <c r="L2" t="n">
-        <v>0.3803</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>71.90000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>51.4</v>
+      </c>
       <c r="N2" t="n">
-        <v>9.796799999999999</v>
+        <v>63.3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>13.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
       <c r="R2" t="n">
-        <v>0.0835</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.7</v>
+      </c>
       <c r="V2" t="n">
-        <v>1.628</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24.3797</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3304</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.6918</v>
+        <v>10.2484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8958</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>3.2101</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.853</v>
+      </c>
       <c r="G3" t="n">
-        <v>0.0767</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>14.8925</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.7134</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.0995</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.3597</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.336</v>
+      </c>
       <c r="L3" t="n">
-        <v>0.3726</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>62.6563</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42.0329</v>
+      </c>
       <c r="N3" t="n">
-        <v>11.1292</v>
+        <v>80.2028</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5691000000000001</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>20.6572</v>
+      </c>
+      <c r="P3" t="n">
+        <v>125.5662</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9.4856</v>
+      </c>
       <c r="R3" t="n">
-        <v>0.2776</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>3.9778</v>
+      </c>
+      <c r="S3" t="n">
+        <v>37.947</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2331</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.3416</v>
+      </c>
       <c r="V3" t="n">
-        <v>1.3875</v>
+        <v>17.2743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30.54621</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5943000000000001</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.9859</v>
+        <v>13.67255</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0215</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>2.84095</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.81378</v>
+      </c>
       <c r="G4" t="n">
-        <v>0.0562</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>17.32466</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.05773</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.2605</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.54125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.14243</v>
+      </c>
       <c r="L4" t="n">
-        <v>0.8478</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>78.74153</v>
+      </c>
+      <c r="M4" t="n">
+        <v>53.68615</v>
+      </c>
       <c r="N4" t="n">
-        <v>12.3991</v>
+        <v>90.21854</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5295</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>27.18245</v>
+      </c>
+      <c r="P4" t="n">
+        <v>144.39898</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>12.15158</v>
+      </c>
       <c r="R4" t="n">
-        <v>0.7487</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>5.09653</v>
+      </c>
+      <c r="S4" t="n">
+        <v>45.97147</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.67985</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.6</v>
+      </c>
       <c r="V4" t="n">
-        <v>2.0219</v>
+        <v>21.1408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.59072</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>46.53001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.78891</v>
+      </c>
       <c r="D5" t="n">
-        <v>0.81972</v>
+        <v>18.96199</v>
       </c>
       <c r="E5" t="n">
-        <v>0.96972</v>
+        <v>4.5366</v>
       </c>
       <c r="F5" t="n">
-        <v>1.52306</v>
+        <v>39.90221</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85241</v>
+        <v>26.22167</v>
       </c>
       <c r="H5" t="n">
-        <v>0.24576</v>
+        <v>18.83177</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9121899999999999</v>
+        <v>18.12289</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5422400000000001</v>
+        <v>26.72752</v>
       </c>
       <c r="K5" t="n">
-        <v>0.64896</v>
+        <v>26.66251</v>
       </c>
       <c r="L5" t="n">
-        <v>1.87154</v>
+        <v>117.83826</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06401</v>
+        <v>82.55495999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>10.65055</v>
+        <v>126.941</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05028</v>
+        <v>40.45897</v>
       </c>
       <c r="P5" t="n">
-        <v>14.45591</v>
+        <v>192.87819</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.78168</v>
+        <v>16.42499</v>
       </c>
       <c r="R5" t="n">
-        <v>0.11893</v>
+        <v>7.02842</v>
       </c>
       <c r="S5" t="n">
-        <v>3.37306</v>
+        <v>52.04237</v>
       </c>
       <c r="T5" t="n">
-        <v>0.45059</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
+        <v>3.56371</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.81886</v>
+      </c>
       <c r="V5" t="n">
-        <v>1.07273</v>
+        <v>33.24526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.20577</v>
+        <v>50.66639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04752</v>
+        <v>0.93018</v>
       </c>
       <c r="D6" t="n">
-        <v>1.59894</v>
+        <v>20.75844</v>
       </c>
       <c r="E6" t="n">
-        <v>1.38411</v>
+        <v>2.60769</v>
       </c>
       <c r="F6" t="n">
-        <v>3.40496</v>
+        <v>44.41545</v>
       </c>
       <c r="G6" t="n">
-        <v>3.11812</v>
+        <v>26.84767</v>
       </c>
       <c r="H6" t="n">
-        <v>0.73423</v>
+        <v>21.29245</v>
       </c>
       <c r="I6" t="n">
-        <v>1.80989</v>
+        <v>20.41065</v>
       </c>
       <c r="J6" t="n">
-        <v>1.16002</v>
+        <v>26.71164</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4505</v>
+        <v>28.03489</v>
       </c>
       <c r="L6" t="n">
-        <v>6.09392</v>
+        <v>118.18856</v>
       </c>
       <c r="M6" t="n">
-        <v>3.1973</v>
+        <v>81.58924</v>
       </c>
       <c r="N6" t="n">
-        <v>15.55169</v>
+        <v>120.74337</v>
       </c>
       <c r="O6" t="n">
-        <v>1.94321</v>
+        <v>45.01496</v>
       </c>
       <c r="P6" t="n">
-        <v>22.96806</v>
+        <v>188.06858</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43595</v>
+        <v>18.37959</v>
       </c>
       <c r="R6" t="n">
-        <v>0.64152</v>
+        <v>8.520670000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>6.62243</v>
+        <v>54.00626</v>
       </c>
       <c r="T6" t="n">
-        <v>0.82495</v>
+        <v>4.41331</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02087</v>
+        <v>4.13576</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22759</v>
+        <v>38.08381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.17218</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>56.8681</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9655</v>
+      </c>
       <c r="D7" t="n">
-        <v>1.54271</v>
+        <v>21.1187</v>
       </c>
       <c r="E7" t="n">
-        <v>1.48451</v>
+        <v>2.7279</v>
       </c>
       <c r="F7" t="n">
-        <v>5.23919</v>
+        <v>47.1041</v>
       </c>
       <c r="G7" t="n">
-        <v>4.0132</v>
+        <v>23.96</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7501100000000001</v>
+        <v>21.4819</v>
       </c>
       <c r="I7" t="n">
-        <v>4.06987</v>
+        <v>18.2635</v>
       </c>
       <c r="J7" t="n">
-        <v>1.18271</v>
+        <v>27.9781</v>
       </c>
       <c r="K7" t="n">
-        <v>2.67905</v>
+        <v>40.858</v>
       </c>
       <c r="L7" t="n">
-        <v>8.65207</v>
+        <v>134.952</v>
       </c>
       <c r="M7" t="n">
-        <v>5.57126</v>
+        <v>85.3134</v>
       </c>
       <c r="N7" t="n">
-        <v>15.94708</v>
+        <v>118.4293</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9594</v>
+        <v>45.5659</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>184.2025</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.42711</v>
+        <v>19.3055</v>
       </c>
       <c r="R7" t="n">
-        <v>0.61779</v>
+        <v>9.610900000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>5.86583</v>
+        <v>52.9812</v>
       </c>
       <c r="T7" t="n">
-        <v>0.40674</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>4.9575</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.0622</v>
+      </c>
       <c r="V7" t="n">
-        <v>1.34417</v>
+        <v>39.6778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.1496</v>
+        <v>52.7035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0713</v>
+        <v>0.8848</v>
       </c>
       <c r="D8" t="n">
-        <v>1.9678</v>
+        <v>31.8562</v>
       </c>
       <c r="E8" t="n">
-        <v>1.576</v>
+        <v>2.8664</v>
       </c>
       <c r="F8" t="n">
-        <v>4.186</v>
+        <v>51.6004</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6078</v>
+        <v>21.9864</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9757</v>
+        <v>29.3202</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5489</v>
+        <v>24.3314</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2667</v>
+        <v>28.1288</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7242</v>
+        <v>35.9377</v>
       </c>
       <c r="L8" t="n">
-        <v>8.9903</v>
+        <v>132.6132</v>
       </c>
       <c r="M8" t="n">
-        <v>5.5391</v>
+        <v>88.46720000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>17.9495</v>
+        <v>99.4325</v>
       </c>
       <c r="O8" t="n">
-        <v>2.0352</v>
+        <v>45.8977</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1876</v>
+        <v>156.951</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7385</v>
+        <v>29.8412</v>
       </c>
       <c r="R8" t="n">
-        <v>0.826</v>
+        <v>8.722300000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>11.0434</v>
+        <v>45.9789</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6318</v>
+        <v>3.9307</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0635</v>
+        <v>14.9638</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5287</v>
+        <v>38.4536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.38356</v>
+        <v>38.174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08713</v>
+        <v>1.204</v>
       </c>
       <c r="D9" t="n">
-        <v>2.84106</v>
+        <v>22.114</v>
       </c>
       <c r="E9" t="n">
-        <v>1.19686</v>
+        <v>3.528</v>
       </c>
       <c r="F9" t="n">
-        <v>6.6663</v>
+        <v>38.58</v>
       </c>
       <c r="G9" t="n">
-        <v>5.23706</v>
+        <v>26.459</v>
       </c>
       <c r="H9" t="n">
-        <v>1.61434</v>
+        <v>25.532</v>
       </c>
       <c r="I9" t="n">
-        <v>4.63201</v>
+        <v>14.478</v>
       </c>
       <c r="J9" t="n">
-        <v>2.21469</v>
+        <v>23.465</v>
       </c>
       <c r="K9" t="n">
-        <v>4.01625</v>
+        <v>32.024</v>
       </c>
       <c r="L9" t="n">
-        <v>12.5442</v>
+        <v>139.728</v>
       </c>
       <c r="M9" t="n">
-        <v>7.82239</v>
+        <v>102.761</v>
       </c>
       <c r="N9" t="n">
-        <v>25.60872</v>
+        <v>94.648</v>
       </c>
       <c r="O9" t="n">
-        <v>3.28222</v>
+        <v>36.377</v>
       </c>
       <c r="P9" t="n">
-        <v>38.53116</v>
+        <v>136.959</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68671</v>
+        <v>20.346</v>
       </c>
       <c r="R9" t="n">
-        <v>1.01215</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>11.30602</v>
+        <v>35.948</v>
       </c>
       <c r="T9" t="n">
-        <v>0.80279</v>
+        <v>2.672</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07115</v>
+        <v>15.664</v>
       </c>
       <c r="V9" t="n">
-        <v>1.89246</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.0677</v>
+        <v>23.8025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1522</v>
+        <v>1.4375</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3239</v>
+        <v>16.829</v>
       </c>
       <c r="E10" t="n">
-        <v>3.2126</v>
+        <v>4.2536</v>
       </c>
       <c r="F10" t="n">
-        <v>18.9481</v>
+        <v>25.5247</v>
       </c>
       <c r="G10" t="n">
-        <v>9.7895</v>
+        <v>25.9751</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6453</v>
+        <v>27.3113</v>
       </c>
       <c r="I10" t="n">
-        <v>14.9818</v>
+        <v>11.4577</v>
       </c>
       <c r="J10" t="n">
-        <v>6.378</v>
+        <v>21.5839</v>
       </c>
       <c r="K10" t="n">
-        <v>16.8789</v>
+        <v>27.2603</v>
       </c>
       <c r="L10" t="n">
-        <v>48.996</v>
+        <v>133.1584</v>
       </c>
       <c r="M10" t="n">
-        <v>29.9989</v>
+        <v>99.4316</v>
       </c>
       <c r="N10" t="n">
-        <v>46.9809</v>
+        <v>83.8796</v>
       </c>
       <c r="O10" t="n">
-        <v>9.5991</v>
+        <v>32.7327</v>
       </c>
       <c r="P10" t="n">
-        <v>83.705</v>
+        <v>120.0458</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.0713</v>
+        <v>14.6726</v>
       </c>
       <c r="R10" t="n">
-        <v>2.0951</v>
+        <v>4.4245</v>
       </c>
       <c r="S10" t="n">
-        <v>32.2445</v>
+        <v>30.9899</v>
       </c>
       <c r="T10" t="n">
-        <v>1.4988</v>
+        <v>2.3985</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6232</v>
+        <v>22.1828</v>
       </c>
       <c r="V10" t="n">
-        <v>5.2644</v>
+        <v>24.6873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.73619</v>
+        <v>19.7608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16605</v>
+        <v>4.8538</v>
       </c>
       <c r="D11" t="n">
-        <v>7.10993</v>
+        <v>19.0277</v>
       </c>
       <c r="E11" t="n">
-        <v>3.04782</v>
+        <v>5.3366</v>
       </c>
       <c r="F11" t="n">
-        <v>13.27432</v>
+        <v>28.985</v>
       </c>
       <c r="G11" t="n">
-        <v>9.538970000000001</v>
+        <v>32.4362</v>
       </c>
       <c r="H11" t="n">
-        <v>3.98552</v>
+        <v>37.0096</v>
       </c>
       <c r="I11" t="n">
-        <v>9.32649</v>
+        <v>13.2309</v>
       </c>
       <c r="J11" t="n">
-        <v>6.02742</v>
+        <v>23.0787</v>
       </c>
       <c r="K11" t="n">
-        <v>17.85318</v>
+        <v>30.8917</v>
       </c>
       <c r="L11" t="n">
-        <v>51.01228</v>
+        <v>177.0666</v>
       </c>
       <c r="M11" t="n">
-        <v>30.99751</v>
+        <v>135.7375</v>
       </c>
       <c r="N11" t="n">
-        <v>44.45214</v>
+        <v>111.3141</v>
       </c>
       <c r="O11" t="n">
-        <v>9.219469999999999</v>
+        <v>35.0872</v>
       </c>
       <c r="P11" t="n">
-        <v>81.18263</v>
+        <v>149.6378</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.83254</v>
+        <v>16.7372</v>
       </c>
       <c r="R11" t="n">
-        <v>2.01761</v>
+        <v>4.9356</v>
       </c>
       <c r="S11" t="n">
-        <v>31.9835</v>
+        <v>32.5299</v>
       </c>
       <c r="T11" t="n">
-        <v>1.58518</v>
+        <v>4.026</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4681</v>
+        <v>30.514</v>
       </c>
       <c r="V11" t="n">
-        <v>9.18878</v>
+        <v>24.569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.6</v>
+        <v>13.846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4</v>
+        <v>0.7311</v>
       </c>
       <c r="D12" t="n">
-        <v>9.5</v>
+        <v>15.2999</v>
       </c>
       <c r="E12" t="n">
-        <v>3.4</v>
+        <v>5.0966</v>
       </c>
       <c r="F12" t="n">
-        <v>19.4</v>
+        <v>19.3001</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>28.8136</v>
       </c>
       <c r="H12" t="n">
-        <v>8.1</v>
+        <v>39.7158</v>
       </c>
       <c r="I12" t="n">
-        <v>14.1</v>
+        <v>8.2841</v>
       </c>
       <c r="J12" t="n">
-        <v>9.6</v>
+        <v>20.65</v>
       </c>
       <c r="K12" t="n">
-        <v>16.9</v>
+        <v>35.1427</v>
       </c>
       <c r="L12" t="n">
-        <v>71.90000000000001</v>
+        <v>142.237</v>
       </c>
       <c r="M12" t="n">
-        <v>51.4</v>
+        <v>100.8544</v>
       </c>
       <c r="N12" t="n">
-        <v>63.3</v>
+        <v>80.4121</v>
       </c>
       <c r="O12" t="n">
-        <v>13.3</v>
+        <v>34.6549</v>
       </c>
       <c r="P12" t="n">
-        <v>97.7</v>
+        <v>113.1612</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>13.667</v>
       </c>
       <c r="R12" t="n">
-        <v>2.7</v>
+        <v>4.0871</v>
       </c>
       <c r="S12" t="n">
-        <v>26.6</v>
+        <v>28.6196</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>2.2683</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7</v>
+        <v>34.7449</v>
       </c>
       <c r="V12" t="n">
-        <v>10.9</v>
+        <v>17.1656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.3797</v>
+        <v>12.9539</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3304</v>
+        <v>0.8131</v>
       </c>
       <c r="D13" t="n">
-        <v>10.2484</v>
+        <v>15.9273</v>
       </c>
       <c r="E13" t="n">
-        <v>3.2101</v>
+        <v>5.2954</v>
       </c>
       <c r="F13" t="n">
-        <v>23.853</v>
+        <v>20.9411</v>
       </c>
       <c r="G13" t="n">
-        <v>14.8925</v>
+        <v>35.1133</v>
       </c>
       <c r="H13" t="n">
-        <v>10.7134</v>
+        <v>45.8923</v>
       </c>
       <c r="I13" t="n">
-        <v>17.0995</v>
+        <v>6.5182</v>
       </c>
       <c r="J13" t="n">
-        <v>14.3597</v>
+        <v>21.1067</v>
       </c>
       <c r="K13" t="n">
-        <v>16.336</v>
+        <v>37.5094</v>
       </c>
       <c r="L13" t="n">
-        <v>62.6563</v>
+        <v>178.2036</v>
       </c>
       <c r="M13" t="n">
-        <v>42.0329</v>
+        <v>135.872</v>
       </c>
       <c r="N13" t="n">
-        <v>80.2028</v>
+        <v>101.8652</v>
       </c>
       <c r="O13" t="n">
-        <v>20.6572</v>
+        <v>41.5174</v>
       </c>
       <c r="P13" t="n">
-        <v>125.5662</v>
+        <v>134.7039</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.4856</v>
+        <v>14.272</v>
       </c>
       <c r="R13" t="n">
-        <v>3.9778</v>
+        <v>7.5086</v>
       </c>
       <c r="S13" t="n">
-        <v>37.947</v>
+        <v>28.6502</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2331</v>
+        <v>2.6369</v>
       </c>
       <c r="U13" t="n">
-        <v>1.3416</v>
+        <v>41.2033</v>
       </c>
       <c r="V13" t="n">
-        <v>17.2743</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>30.54621</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13.67255</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.84095</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29.81378</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17.32466</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13.05773</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17.2605</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18.54125</v>
-      </c>
-      <c r="K14" t="n">
-        <v>18.14243</v>
-      </c>
-      <c r="L14" t="n">
-        <v>78.74153</v>
-      </c>
-      <c r="M14" t="n">
-        <v>53.68615</v>
-      </c>
-      <c r="N14" t="n">
-        <v>90.21854</v>
-      </c>
-      <c r="O14" t="n">
-        <v>27.18245</v>
-      </c>
-      <c r="P14" t="n">
-        <v>144.39898</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>12.15158</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5.09653</v>
-      </c>
-      <c r="S14" t="n">
-        <v>45.97147</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.67985</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21.1408</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>46.53001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.78891</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18.96199</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.5366</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39.90221</v>
-      </c>
-      <c r="G15" t="n">
-        <v>26.22167</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18.83177</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18.12289</v>
-      </c>
-      <c r="J15" t="n">
-        <v>26.72752</v>
-      </c>
-      <c r="K15" t="n">
-        <v>26.66251</v>
-      </c>
-      <c r="L15" t="n">
-        <v>117.83826</v>
-      </c>
-      <c r="M15" t="n">
-        <v>82.55495999999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>126.941</v>
-      </c>
-      <c r="O15" t="n">
-        <v>40.45897</v>
-      </c>
-      <c r="P15" t="n">
-        <v>192.87819</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>16.42499</v>
-      </c>
-      <c r="R15" t="n">
-        <v>7.02842</v>
-      </c>
-      <c r="S15" t="n">
-        <v>52.04237</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.56371</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.81886</v>
-      </c>
-      <c r="V15" t="n">
-        <v>33.24526</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>50.66639</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.93018</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20.75844</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.60769</v>
-      </c>
-      <c r="F16" t="n">
-        <v>44.41545</v>
-      </c>
-      <c r="G16" t="n">
-        <v>26.84767</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21.29245</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20.41065</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26.71164</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28.03489</v>
-      </c>
-      <c r="L16" t="n">
-        <v>118.18856</v>
-      </c>
-      <c r="M16" t="n">
-        <v>81.58924</v>
-      </c>
-      <c r="N16" t="n">
-        <v>120.74337</v>
-      </c>
-      <c r="O16" t="n">
-        <v>45.01496</v>
-      </c>
-      <c r="P16" t="n">
-        <v>188.06858</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>18.37959</v>
-      </c>
-      <c r="R16" t="n">
-        <v>8.520670000000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>54.00626</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.41331</v>
-      </c>
-      <c r="U16" t="n">
-        <v>4.13576</v>
-      </c>
-      <c r="V16" t="n">
-        <v>38.08381</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>56.8681</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9655</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21.1187</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.7279</v>
-      </c>
-      <c r="F17" t="n">
-        <v>47.1041</v>
-      </c>
-      <c r="G17" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21.4819</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18.2635</v>
-      </c>
-      <c r="J17" t="n">
-        <v>27.9781</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40.858</v>
-      </c>
-      <c r="L17" t="n">
-        <v>134.952</v>
-      </c>
-      <c r="M17" t="n">
-        <v>85.3134</v>
-      </c>
-      <c r="N17" t="n">
-        <v>118.4293</v>
-      </c>
-      <c r="O17" t="n">
-        <v>45.5659</v>
-      </c>
-      <c r="P17" t="n">
-        <v>184.2025</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>19.3055</v>
-      </c>
-      <c r="R17" t="n">
-        <v>9.610900000000001</v>
-      </c>
-      <c r="S17" t="n">
-        <v>52.9812</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4.9575</v>
-      </c>
-      <c r="U17" t="n">
-        <v>6.0622</v>
-      </c>
-      <c r="V17" t="n">
-        <v>39.6778</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>52.7035</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8848</v>
-      </c>
-      <c r="D18" t="n">
-        <v>31.8562</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.8664</v>
-      </c>
-      <c r="F18" t="n">
-        <v>51.6004</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21.9864</v>
-      </c>
-      <c r="H18" t="n">
-        <v>29.3202</v>
-      </c>
-      <c r="I18" t="n">
-        <v>24.3314</v>
-      </c>
-      <c r="J18" t="n">
-        <v>28.1288</v>
-      </c>
-      <c r="K18" t="n">
-        <v>35.9377</v>
-      </c>
-      <c r="L18" t="n">
-        <v>132.6132</v>
-      </c>
-      <c r="M18" t="n">
-        <v>88.46720000000001</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.4325</v>
-      </c>
-      <c r="O18" t="n">
-        <v>45.8977</v>
-      </c>
-      <c r="P18" t="n">
-        <v>156.951</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>29.8412</v>
-      </c>
-      <c r="R18" t="n">
-        <v>8.722300000000001</v>
-      </c>
-      <c r="S18" t="n">
-        <v>45.9789</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.9307</v>
-      </c>
-      <c r="U18" t="n">
-        <v>14.9638</v>
-      </c>
-      <c r="V18" t="n">
-        <v>38.4536</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>38.174</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.204</v>
-      </c>
-      <c r="D19" t="n">
-        <v>22.114</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3.528</v>
-      </c>
-      <c r="F19" t="n">
-        <v>38.58</v>
-      </c>
-      <c r="G19" t="n">
-        <v>26.459</v>
-      </c>
-      <c r="H19" t="n">
-        <v>25.532</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14.478</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23.465</v>
-      </c>
-      <c r="K19" t="n">
-        <v>32.024</v>
-      </c>
-      <c r="L19" t="n">
-        <v>139.728</v>
-      </c>
-      <c r="M19" t="n">
-        <v>102.761</v>
-      </c>
-      <c r="N19" t="n">
-        <v>94.648</v>
-      </c>
-      <c r="O19" t="n">
-        <v>36.377</v>
-      </c>
-      <c r="P19" t="n">
-        <v>136.959</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>20.346</v>
-      </c>
-      <c r="R19" t="n">
-        <v>8.329000000000001</v>
-      </c>
-      <c r="S19" t="n">
-        <v>35.948</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.672</v>
-      </c>
-      <c r="U19" t="n">
-        <v>15.664</v>
-      </c>
-      <c r="V19" t="n">
-        <v>29.52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>23.8025</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.4375</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16.829</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.2536</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25.5247</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25.9751</v>
-      </c>
-      <c r="H20" t="n">
-        <v>27.3113</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.4577</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21.5839</v>
-      </c>
-      <c r="K20" t="n">
-        <v>27.2603</v>
-      </c>
-      <c r="L20" t="n">
-        <v>133.1584</v>
-      </c>
-      <c r="M20" t="n">
-        <v>99.4316</v>
-      </c>
-      <c r="N20" t="n">
-        <v>83.8796</v>
-      </c>
-      <c r="O20" t="n">
-        <v>32.7327</v>
-      </c>
-      <c r="P20" t="n">
-        <v>120.0458</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>14.6726</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4.4245</v>
-      </c>
-      <c r="S20" t="n">
-        <v>30.9899</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.3985</v>
-      </c>
-      <c r="U20" t="n">
-        <v>22.1828</v>
-      </c>
-      <c r="V20" t="n">
-        <v>24.6873</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>19.7608</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.8538</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19.0277</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.3366</v>
-      </c>
-      <c r="F21" t="n">
-        <v>28.985</v>
-      </c>
-      <c r="G21" t="n">
-        <v>32.4362</v>
-      </c>
-      <c r="H21" t="n">
-        <v>37.0096</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13.2309</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23.0787</v>
-      </c>
-      <c r="K21" t="n">
-        <v>30.8917</v>
-      </c>
-      <c r="L21" t="n">
-        <v>177.0666</v>
-      </c>
-      <c r="M21" t="n">
-        <v>135.7375</v>
-      </c>
-      <c r="N21" t="n">
-        <v>111.3141</v>
-      </c>
-      <c r="O21" t="n">
-        <v>35.0872</v>
-      </c>
-      <c r="P21" t="n">
-        <v>149.6378</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>16.7372</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4.9356</v>
-      </c>
-      <c r="S21" t="n">
-        <v>32.5299</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4.026</v>
-      </c>
-      <c r="U21" t="n">
-        <v>30.514</v>
-      </c>
-      <c r="V21" t="n">
-        <v>24.569</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>13.846</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7311</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15.2999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.0966</v>
-      </c>
-      <c r="F22" t="n">
-        <v>19.3001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>28.8136</v>
-      </c>
-      <c r="H22" t="n">
-        <v>39.7158</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8.2841</v>
-      </c>
-      <c r="J22" t="n">
-        <v>20.65</v>
-      </c>
-      <c r="K22" t="n">
-        <v>35.1427</v>
-      </c>
-      <c r="L22" t="n">
-        <v>142.237</v>
-      </c>
-      <c r="M22" t="n">
-        <v>100.8544</v>
-      </c>
-      <c r="N22" t="n">
-        <v>80.4121</v>
-      </c>
-      <c r="O22" t="n">
-        <v>34.6549</v>
-      </c>
-      <c r="P22" t="n">
-        <v>113.1612</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>13.667</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.0871</v>
-      </c>
-      <c r="S22" t="n">
-        <v>28.6196</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.2683</v>
-      </c>
-      <c r="U22" t="n">
-        <v>34.7449</v>
-      </c>
-      <c r="V22" t="n">
-        <v>17.1656</v>
+        <v>19.3226</v>
       </c>
     </row>
   </sheetData>
